--- a/modelos/OBAPPA4451306/OBAPPA4451306_Sell Out_metricas.xlsx
+++ b/modelos/OBAPPA4451306/OBAPPA4451306_Sell Out_metricas.xlsx
@@ -476,13 +476,13 @@
         <v>45024</v>
       </c>
       <c r="B2" t="n">
-        <v>11.45198518039842</v>
+        <v>11.55820278606139</v>
       </c>
       <c r="C2" t="n">
-        <v>8.69706194656421</v>
+        <v>8.853700164241086</v>
       </c>
       <c r="D2" t="n">
-        <v>14.17729967239051</v>
+        <v>14.35313117071574</v>
       </c>
       <c r="E2" t="n">
         <v>10</v>
@@ -496,13 +496,13 @@
         <v>45048</v>
       </c>
       <c r="B3" t="n">
-        <v>12.28899081268663</v>
+        <v>12.36568931464424</v>
       </c>
       <c r="C3" t="n">
-        <v>9.647553275436303</v>
+        <v>9.790726230678377</v>
       </c>
       <c r="D3" t="n">
-        <v>15.05474402468679</v>
+        <v>15.12553749056029</v>
       </c>
       <c r="E3" t="n">
         <v>8</v>
@@ -516,13 +516,13 @@
         <v>45055</v>
       </c>
       <c r="B4" t="n">
-        <v>11.22833393101093</v>
+        <v>11.291719478984</v>
       </c>
       <c r="C4" t="n">
-        <v>8.406056688472187</v>
+        <v>8.567282458376273</v>
       </c>
       <c r="D4" t="n">
-        <v>13.94273261793008</v>
+        <v>14.13060910116456</v>
       </c>
       <c r="E4" t="n">
         <v>9</v>
@@ -536,13 +536,13 @@
         <v>45062</v>
       </c>
       <c r="B5" t="n">
-        <v>10.8669786502674</v>
+        <v>10.94340871152969</v>
       </c>
       <c r="C5" t="n">
-        <v>7.912687145371574</v>
+        <v>8.117536547534241</v>
       </c>
       <c r="D5" t="n">
-        <v>13.69076621676773</v>
+        <v>13.97904163036709</v>
       </c>
       <c r="E5" t="n">
         <v>5</v>
@@ -617,22 +617,22 @@
         <v>7</v>
       </c>
       <c r="B2" t="n">
-        <v>14.97265343654877</v>
+        <v>15.51583109928255</v>
       </c>
       <c r="C2" t="n">
-        <v>3.869451309494509</v>
+        <v>3.93901397551247</v>
       </c>
       <c r="D2" t="n">
-        <v>3.459072143590845</v>
+        <v>3.539755072804834</v>
       </c>
       <c r="E2" t="n">
-        <v>0.5255776896700914</v>
+        <v>0.5362121707268745</v>
       </c>
       <c r="F2" t="n">
-        <v>0.3918582552935214</v>
+        <v>0.40017333099771</v>
       </c>
       <c r="G2" t="n">
-        <v>0.3794998342407043</v>
+        <v>0.3861820046283539</v>
       </c>
       <c r="H2" t="n">
         <v>0.5</v>

--- a/modelos/OBAPPA4451306/OBAPPA4451306_Sell Out_metricas.xlsx
+++ b/modelos/OBAPPA4451306/OBAPPA4451306_Sell Out_metricas.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,81 +473,61 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45024</v>
+        <v>45048</v>
       </c>
       <c r="B2" t="n">
-        <v>11.55820278606139</v>
+        <v>11.03509162097268</v>
       </c>
       <c r="C2" t="n">
-        <v>8.853700164241086</v>
+        <v>7.743701449859683</v>
       </c>
       <c r="D2" t="n">
-        <v>14.35313117071574</v>
+        <v>14.28055906270688</v>
       </c>
       <c r="E2" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45017</v>
+        <v>45041</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
+        <v>45055</v>
+      </c>
+      <c r="B3" t="n">
+        <v>10.53369751006377</v>
+      </c>
+      <c r="C3" t="n">
+        <v>7.201807358880109</v>
+      </c>
+      <c r="D3" t="n">
+        <v>13.81291228654678</v>
+      </c>
+      <c r="E3" t="n">
+        <v>9</v>
+      </c>
+      <c r="F3" s="2" t="n">
         <v>45048</v>
-      </c>
-      <c r="B3" t="n">
-        <v>12.36568931464424</v>
-      </c>
-      <c r="C3" t="n">
-        <v>9.790726230678377</v>
-      </c>
-      <c r="D3" t="n">
-        <v>15.12553749056029</v>
-      </c>
-      <c r="E3" t="n">
-        <v>8</v>
-      </c>
-      <c r="F3" s="2" t="n">
-        <v>45041</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45055</v>
+        <v>45062</v>
       </c>
       <c r="B4" t="n">
-        <v>11.291719478984</v>
+        <v>10.40159067866933</v>
       </c>
       <c r="C4" t="n">
-        <v>8.567282458376273</v>
+        <v>7.474552108626528</v>
       </c>
       <c r="D4" t="n">
-        <v>14.13060910116456</v>
+        <v>13.69899832487318</v>
       </c>
       <c r="E4" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45048</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>45062</v>
-      </c>
-      <c r="B5" t="n">
-        <v>10.94340871152969</v>
-      </c>
-      <c r="C5" t="n">
-        <v>8.117536547534241</v>
-      </c>
-      <c r="D5" t="n">
-        <v>13.97904163036709</v>
-      </c>
-      <c r="E5" t="n">
-        <v>5</v>
-      </c>
-      <c r="F5" s="2" t="n">
         <v>45055</v>
       </c>
     </row>
@@ -617,25 +597,25 @@
         <v>7</v>
       </c>
       <c r="B2" t="n">
-        <v>15.51583109928255</v>
+        <v>13.58039701998725</v>
       </c>
       <c r="C2" t="n">
-        <v>3.93901397551247</v>
+        <v>3.685159022347238</v>
       </c>
       <c r="D2" t="n">
-        <v>3.539755072804834</v>
+        <v>3.323459936568592</v>
       </c>
       <c r="E2" t="n">
-        <v>0.5362121707268745</v>
+        <v>0.5433718076023268</v>
       </c>
       <c r="F2" t="n">
-        <v>0.40017333099771</v>
+        <v>0.3793864526215844</v>
       </c>
       <c r="G2" t="n">
-        <v>0.3861820046283539</v>
+        <v>0.3924527107516288</v>
       </c>
       <c r="H2" t="n">
-        <v>0.5</v>
+        <v>0.6666666666666667</v>
       </c>
     </row>
   </sheetData>

--- a/modelos/OBAPPA4451306/OBAPPA4451306_Sell Out_metricas.xlsx
+++ b/modelos/OBAPPA4451306/OBAPPA4451306_Sell Out_metricas.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,62 +473,82 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45048</v>
+        <v>45024</v>
       </c>
       <c r="B2" t="n">
-        <v>11.03509162097268</v>
+        <v>11.55820278606139</v>
       </c>
       <c r="C2" t="n">
-        <v>7.743701449859683</v>
+        <v>8.877774025151494</v>
       </c>
       <c r="D2" t="n">
-        <v>14.28055906270688</v>
+        <v>14.33215122914598</v>
       </c>
       <c r="E2" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45041</v>
+        <v>45020</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45055</v>
+        <v>45027</v>
       </c>
       <c r="B3" t="n">
-        <v>10.53369751006377</v>
+        <v>12.00780268177564</v>
       </c>
       <c r="C3" t="n">
-        <v>7.201807358880109</v>
+        <v>9.344978492100104</v>
       </c>
       <c r="D3" t="n">
-        <v>13.81291228654678</v>
+        <v>14.78416451290626</v>
       </c>
       <c r="E3" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45048</v>
+        <v>45020</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45062</v>
+        <v>45048</v>
       </c>
       <c r="B4" t="n">
-        <v>10.40159067866933</v>
+        <v>10.2385711160618</v>
       </c>
       <c r="C4" t="n">
-        <v>7.474552108626528</v>
+        <v>7.294069954802972</v>
       </c>
       <c r="D4" t="n">
-        <v>13.69899832487318</v>
+        <v>13.22285428515294</v>
       </c>
       <c r="E4" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F4" s="2" t="n">
+        <v>45041</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
         <v>45055</v>
+      </c>
+      <c r="B5" t="n">
+        <v>9.869410527333713</v>
+      </c>
+      <c r="C5" t="n">
+        <v>6.734026115418128</v>
+      </c>
+      <c r="D5" t="n">
+        <v>12.83172754554855</v>
+      </c>
+      <c r="E5" t="n">
+        <v>9</v>
+      </c>
+      <c r="F5" s="2" t="n">
+        <v>45048</v>
       </c>
     </row>
   </sheetData>
@@ -542,7 +562,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -594,27 +614,53 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="B2" t="n">
+        <v>2.427995922489483</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1.558202786061392</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.558202786061392</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.1558202786061392</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.1558202786061392</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.1445577631423764</v>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="3" t="n">
         <v>7</v>
       </c>
-      <c r="B2" t="n">
-        <v>13.58039701998725</v>
-      </c>
-      <c r="C2" t="n">
-        <v>3.685159022347238</v>
-      </c>
-      <c r="D2" t="n">
-        <v>3.323459936568592</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0.5433718076023268</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0.3793864526215844</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0.3924527107516288</v>
-      </c>
-      <c r="H2" t="n">
+      <c r="B3" t="n">
+        <v>23.29732636565267</v>
+      </c>
+      <c r="C3" t="n">
+        <v>4.826730401177661</v>
+      </c>
+      <c r="D3" t="n">
+        <v>3.705261441723717</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.7927910765517936</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.2798213895077248</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.4460380925285697</v>
+      </c>
+      <c r="H3" t="n">
         <v>0.6666666666666667</v>
       </c>
     </row>
